--- a/noptien/79.xlsx
+++ b/noptien/79.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0983D17-59A8-4521-B65C-61E3F37DD225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FD417-9CE2-4AEB-8034-5656536C4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="LE_PHI" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LE_PHI!$A$1:$R$192</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -5680,10 +5683,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:HP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,7 +5751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="63" t="s">
         <v>26</v>
@@ -5785,7 +5789,7 @@
       <c r="Q2" s="70"/>
       <c r="R2" s="70"/>
     </row>
-    <row r="3" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>1</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -6059,7 +6063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -6223,7 +6227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -6551,7 +6555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -6823,7 +6827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -6931,7 +6935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:224" s="61" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:224" s="61" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -7515,7 +7519,7 @@
       <c r="HO30" s="52"/>
       <c r="HP30" s="52"/>
     </row>
-    <row r="31" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:224" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:224" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -7681,7 +7685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -7847,7 +7851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -8279,7 +8283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -8445,7 +8449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -8499,7 +8503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -8553,7 +8557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -8769,7 +8773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -8823,7 +8827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -8879,7 +8883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -8989,7 +8993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -9205,7 +9209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -9369,7 +9373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -9425,7 +9429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -9535,7 +9539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -9589,7 +9593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -9697,7 +9701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -9753,7 +9757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -9807,7 +9811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -9861,7 +9865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -9915,7 +9919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -9969,7 +9973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -10023,7 +10027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -10077,7 +10081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -10131,7 +10135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -10241,7 +10245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -10297,7 +10301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -10459,7 +10463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -10513,7 +10517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -10621,7 +10625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -10729,7 +10733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -10783,7 +10787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -10837,7 +10841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -10891,7 +10895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -11053,7 +11057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -11107,7 +11111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -11161,7 +11165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45">
         <v>99</v>
       </c>
@@ -11377,7 +11381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -11431,7 +11435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45">
         <v>101</v>
       </c>
@@ -11485,7 +11489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -11647,7 +11651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -11701,7 +11705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -11755,7 +11759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -11809,7 +11813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -11863,7 +11867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45">
         <v>109</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <v>110</v>
       </c>
@@ -11971,7 +11975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <v>111</v>
       </c>
@@ -12025,7 +12029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <v>112</v>
       </c>
@@ -12079,7 +12083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -12133,7 +12137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -12187,7 +12191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -12243,7 +12247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -12297,7 +12301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -12351,7 +12355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -12405,7 +12409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -12623,7 +12627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -12731,7 +12735,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -12785,7 +12789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45">
         <v>126</v>
       </c>
@@ -12841,7 +12845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45">
         <v>127</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -12949,7 +12953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45">
         <v>130</v>
       </c>
@@ -13059,7 +13063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45">
         <v>131</v>
       </c>
@@ -13113,7 +13117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -13331,7 +13335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -13385,7 +13389,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -13495,7 +13499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="45">
         <v>139</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45">
         <v>140</v>
       </c>
@@ -13605,7 +13609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45">
         <v>141</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="45">
         <v>142</v>
       </c>
@@ -13769,7 +13773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45">
         <v>144</v>
       </c>
@@ -13823,7 +13827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="45">
         <v>145</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="45">
         <v>146</v>
       </c>
@@ -13931,7 +13935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="45">
         <v>147</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="45">
         <v>148</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="45">
         <v>149</v>
       </c>
@@ -14093,7 +14097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="45">
         <v>150</v>
       </c>
@@ -14147,7 +14151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="45">
         <v>151</v>
       </c>
@@ -14201,7 +14205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="45">
         <v>152</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="45">
         <v>153</v>
       </c>
@@ -14311,7 +14315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="45">
         <v>154</v>
       </c>
@@ -14365,7 +14369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="45">
         <v>155</v>
       </c>
@@ -14419,7 +14423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="45">
         <v>156</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="45">
         <v>157</v>
       </c>
@@ -14527,7 +14531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="45">
         <v>158</v>
       </c>
@@ -14581,7 +14585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="45">
         <v>159</v>
       </c>
@@ -14635,7 +14639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45">
         <v>160</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="45">
         <v>161</v>
       </c>
@@ -14743,7 +14747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="45">
         <v>162</v>
       </c>
@@ -14797,7 +14801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="45">
         <v>163</v>
       </c>
@@ -14851,7 +14855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -14905,7 +14909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="45">
         <v>165</v>
       </c>
@@ -14959,7 +14963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="45">
         <v>166</v>
       </c>
@@ -15013,7 +15017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="45">
         <v>167</v>
       </c>
@@ -15067,7 +15071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45">
         <v>168</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>169</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="45">
         <v>170</v>
       </c>
@@ -15231,7 +15235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="45">
         <v>171</v>
       </c>
@@ -15287,7 +15291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="45">
         <v>172</v>
       </c>
@@ -15341,7 +15345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="45">
         <v>173</v>
       </c>
@@ -15395,7 +15399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45">
         <v>174</v>
       </c>
@@ -15449,7 +15453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="45">
         <v>175</v>
       </c>
@@ -15503,7 +15507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="45">
         <v>176</v>
       </c>
@@ -15557,7 +15561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="45">
         <v>177</v>
       </c>
@@ -15611,7 +15615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="45">
         <v>178</v>
       </c>
@@ -15665,7 +15669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="45">
         <v>179</v>
       </c>
@@ -15721,7 +15725,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="45">
         <v>180</v>
       </c>
@@ -15775,7 +15779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="45">
         <v>181</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45">
         <v>182</v>
       </c>
@@ -15995,7 +15999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="45">
         <v>185</v>
       </c>
@@ -16049,7 +16053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45">
         <v>186</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="45">
         <v>187</v>
       </c>
@@ -16159,7 +16163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="45">
         <v>188</v>
       </c>
@@ -16215,7 +16219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="45">
         <v>189</v>
       </c>
@@ -16485,6 +16489,25 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:R192" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="TM"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
